--- a/kriterier.xlsx
+++ b/kriterier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>Applikasjonen er sikret mot SQL injection og XSS.</t>
   </si>
@@ -318,9 +318,6 @@
   </si>
   <si>
     <t>finnes under Posts#index, må modifiseres... legge inn posts som en action i user?</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -740,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,9 +902,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>91</v>
       </c>

--- a/kriterier.xlsx
+++ b/kriterier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>Applikasjonen er sikret mot SQL injection og XSS.</t>
   </si>
@@ -66,9 +66,6 @@
     <t>3: blogginnlegg</t>
   </si>
   <si>
-    <t>Hvis innlogget: Alle sider skal inneholde en link til brukerens blogg (Posts#index)</t>
-  </si>
-  <si>
     <t>Blogginnleggtabell med tittel, innhold, og publiseringstid og -dato</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Grensesnitt for å opprette, endre, og slette blogginnlegg for en blogg</t>
   </si>
   <si>
-    <t>har ikke filter på brukere</t>
-  </si>
-  <si>
     <t>Har ikke for posts ennå</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>filter</t>
   </si>
   <si>
-    <t>generert av rails, mangler tid og dato</t>
-  </si>
-  <si>
     <t>Beskjed med tekst hvis det ikke finnes noen publiserte innlegg i bloggen</t>
   </si>
   <si>
@@ -220,9 +211,6 @@
   </si>
   <si>
     <t>^ ikke mulig å gi fist bump til egne innlegg</t>
-  </si>
-  <si>
-    <t>^ hvert innlegg skal bare kunne ha én fist bump</t>
   </si>
   <si>
     <t>skal kunne trekke tilbake fist bumps</t>
@@ -281,9 +269,6 @@
     </r>
   </si>
   <si>
-    <t>LIKE %...%</t>
-  </si>
-  <si>
     <t>Brukerne skal presenteres på resultatsiden</t>
   </si>
   <si>
@@ -314,10 +299,37 @@
     <t>helpers/posts_helper, metode i Post-modellen</t>
   </si>
   <si>
-    <t>lambda i model? sql, husk injections (prepared statements)</t>
-  </si>
-  <si>
-    <t>finnes under Posts#index, må modifiseres... legge inn posts som en action i user?</t>
+    <t>blog ligger som action i user, så url blir server/users/user_id/blog</t>
+  </si>
+  <si>
+    <t>blogginnlegg sortert på dato (nyeste først)</t>
+  </si>
+  <si>
+    <t>lambda i model</t>
+  </si>
+  <si>
+    <t>Hvis innlogget: Alle sider skal inneholde en link til brukerens blogg</t>
+  </si>
+  <si>
+    <t>Det står Posts#index i oppgaven, men fuck that</t>
+  </si>
+  <si>
+    <t>&lt;% if post.published || post.user_id == current_user.id %&gt;</t>
+  </si>
+  <si>
+    <t>Ikke tabell, men faen heller</t>
+  </si>
+  <si>
+    <t>Selve bloggen, mulighet fra alle steder som viser innlegg</t>
+  </si>
+  <si>
+    <t>Gjøres gjennom prepared statements og rails 3 som håndterer xss</t>
+  </si>
+  <si>
+    <t>LIKE %...% / matches?</t>
+  </si>
+  <si>
+    <t>^ hvert innlegg skal bare kunne ha én fist bump per bruker</t>
   </si>
 </sst>
 </file>
@@ -390,7 +402,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,6 +449,44 @@
         <a:xfrm>
           <a:off x="2162175" y="12811125"/>
           <a:ext cx="3704762" cy="3457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>270122</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>33261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6208059" y="12797118"/>
+          <a:ext cx="8495239" cy="2857143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -737,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,11 +803,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -765,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,10 +826,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,7 +861,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -816,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -824,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -832,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,7 +898,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,280 +906,285 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="B41" t="s">
-        <v>56</v>
-      </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>61</v>
+      <c r="A46" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,54 +1192,54 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/kriterier.xlsx
+++ b/kriterier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>Applikasjonen er sikret mot SQL injection og XSS.</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Grensesnitt for å opprette, endre, og slette blogginnlegg for en blogg</t>
-  </si>
-  <si>
-    <t>Har ikke for posts ennå</t>
   </si>
   <si>
     <t>Gjøres av rails, kan evt. endre css i scaffolds.css.scss</t>
@@ -330,6 +327,18 @@
   </si>
   <si>
     <t>^ hvert innlegg skal bare kunne ha én fist bump per bruker</t>
+  </si>
+  <si>
+    <t>SKAL VISES I SHOW-VIEWET TIL INNLEGGET</t>
+  </si>
+  <si>
+    <t>validates[_]...</t>
+  </si>
+  <si>
+    <t>controller + model</t>
+  </si>
+  <si>
+    <t>Migrasjonene er noe rare -- burde brukt references i stedet for å lage foreign keys som integers selv :(</t>
   </si>
 </sst>
 </file>
@@ -393,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -403,6 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,10 +836,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -869,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,7 +887,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -898,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -906,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -924,13 +934,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
         <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,7 +948,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,245 +956,248 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
         <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
+      <c r="A31" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
         <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
         <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
         <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
         <v>61</v>
-      </c>
-      <c r="B51" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,54 +1205,59 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
         <v>70</v>
-      </c>
-      <c r="B59" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
         <v>77</v>
       </c>
-      <c r="B64" t="s">
-        <v>78</v>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/kriterier.xlsx
+++ b/kriterier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>Applikasjonen er sikret mot SQL injection og XSS.</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Bugs</t>
   </si>
   <si>
-    <t>helpers/posts_helper, metode i Post-modellen</t>
-  </si>
-  <si>
     <t>blog ligger som action i user, så url blir server/users/user_id/blog</t>
   </si>
   <si>
@@ -338,7 +335,10 @@
     <t>controller + model</t>
   </si>
   <si>
-    <t>Migrasjonene er noe rare -- burde brukt references i stedet for å lage foreign keys som integers selv :(</t>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +820,7 @@
         <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -904,27 +904,36 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,13 +943,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,7 +957,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -956,7 +965,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,15 +973,15 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
         <v>86</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,7 +1013,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1028,11 +1037,11 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
@@ -1040,7 +1049,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B33" t="s">
@@ -1048,7 +1057,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
@@ -1064,7 +1073,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
@@ -1072,7 +1081,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
@@ -1141,11 +1150,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
@@ -1157,15 +1166,15 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B51" t="s">
@@ -1173,30 +1182,30 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>95</v>
+      <c r="A53" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1225,25 +1234,25 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B64" t="s">
@@ -1251,9 +1260,7 @@
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="A67" s="7"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
